--- a/Ch 4 - Transactions/Killa.xlsx
+++ b/Ch 4 - Transactions/Killa.xlsx
@@ -787,142 +787,142 @@
     <t>oedpum</t>
   </si>
   <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1992-11-10 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': n/a}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1992-01-01 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1981-01-07 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': n/a}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1980-11-22 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1998-08-20 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1976-12-12 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1976-12-12 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': n/a}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': n/a}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1984-06-13 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1981-06-27 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1989-12-29 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1981-01-07 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1999-12-23 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1979-09-27 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1969-09-09 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1975-12-05 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1993-02-15 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1988-05-08 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1980-01-01 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 2000-12-04 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1988-10-10 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1994-09-09 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1992-01-01 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1991-07-10 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1989-03-17 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1992-03-31 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1991-07-10 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1999-12-16 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 2000-06-13 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1967-08-24 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1989-05-21 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1993-12-23 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1992-12-24 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1980-01-01 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1989-01-01 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1980-08-31 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': 1993-09-06 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1984-08-26 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': 1992-03-31 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1974-02-05 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1999-12-23 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': 1980-08-31 00:00:00}</t>
-  </si>
-  <si>
-    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': 1987-04-02 00:00:00}</t>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1992-11-10 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['n/a']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1992-01-01 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1981-01-07 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['n/a']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1980-11-22 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1998-08-20 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1976-12-12 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1976-12-12 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['n/a']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['n/a']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1984-06-13 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1981-06-27 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1989-12-29 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1981-01-07 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1999-12-23 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1979-09-27 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1969-09-09 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1975-12-05 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1993-02-15 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1988-05-08 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1980-01-01 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['2000-12-04 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1988-10-10 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1994-09-09 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1992-01-01 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1991-07-10 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1989-03-17 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1992-03-31 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1991-07-10 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1999-12-16 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['2000-06-13 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1967-08-24 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1989-05-21 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1993-12-23 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1992-12-24 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1980-01-01 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1989-01-01 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1980-08-31 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T06:00:46.904000Z', 'tx_amount': 29627, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'GBank', 'dob': ['1993-09-06 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1984-08-26 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T16:10:51.479000Z', 'tx_amount': 27791, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'KBank', 'dob': ['1992-03-31 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1974-02-05 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1999-12-23 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-12T20:22:38.986000Z', 'tx_amount': 38445, 'tx_mode': 'Debit', 'tx_channel': 'mobile', 'bank_name': 'ABank', 'dob': ['1980-08-31 00:00:00']}</t>
+  </si>
+  <si>
+    <t>{'tx_id': '5ed3d67b8723c11444c43283', 'tx_date': '2020-06-13T05:28:47.543000Z', 'tx_amount': 6192, 'tx_mode': 'Debit', 'tx_channel': 'web', 'bank_name': 'QBank', 'dob': ['1987-04-02 00:00:00']}</t>
   </si>
 </sst>
 </file>
